--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/CA Freight.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/CA Freight.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="183">
   <si>
     <t>CUSTOMER_REFERENCE</t>
   </si>
@@ -573,13 +573,16 @@
   <si>
     <t xml:space="preserve">REVENUE 
 </t>
+  </si>
+  <si>
+    <t>Save Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -681,12 +684,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -843,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -883,21 +880,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1133,14 +1115,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1148,236 +1165,236 @@
   </borders>
   <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1386,42 +1403,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1481,7 +1498,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1494,211 +1511,220 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="228" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="138" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="138" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2418,118 +2444,118 @@
   <sheetPr codeName="Sheet16">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:EC8"/>
+  <dimension ref="A1:ED8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="23.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="3"/>
-    <col min="21" max="21" width="4.85546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="3"/>
-    <col min="24" max="24" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="3"/>
-    <col min="27" max="27" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="3"/>
-    <col min="34" max="34" width="19.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="9.140625" style="3"/>
-    <col min="47" max="47" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="62" width="22.140625" style="3" customWidth="1"/>
-    <col min="63" max="63" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="74" width="22.140625" style="3" customWidth="1"/>
-    <col min="75" max="75" width="30.85546875" style="3" customWidth="1"/>
-    <col min="76" max="76" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="43.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="9.140625" style="3"/>
-    <col min="80" max="80" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="83" width="30.7109375" style="3" customWidth="1"/>
-    <col min="84" max="84" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.140625" style="3"/>
-    <col min="96" max="97" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="9.140625" style="3"/>
-    <col min="100" max="100" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.140625" style="3"/>
-    <col min="106" max="106" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="9.140625" style="2"/>
-    <col min="109" max="113" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.140625" style="2"/>
-    <col min="115" max="115" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="121" width="9.140625" style="2"/>
-    <col min="122" max="122" width="15.28515625" style="2" customWidth="1"/>
-    <col min="123" max="123" width="23.7109375" style="2" customWidth="1"/>
-    <col min="124" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="31.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="23.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="4.85546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="3"/>
+    <col min="28" max="28" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="3"/>
+    <col min="35" max="35" width="19.140625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="9.140625" style="3"/>
+    <col min="48" max="48" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="63" width="22.140625" style="3" customWidth="1"/>
+    <col min="64" max="64" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="65" max="75" width="22.140625" style="3" customWidth="1"/>
+    <col min="76" max="76" width="30.85546875" style="3" customWidth="1"/>
+    <col min="77" max="77" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="9.140625" style="3"/>
+    <col min="81" max="81" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="30.7109375" style="3" customWidth="1"/>
+    <col min="85" max="85" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.140625" style="3"/>
+    <col min="97" max="98" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.140625" style="3"/>
+    <col min="101" max="101" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.140625" style="3"/>
+    <col min="107" max="107" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="9.140625" style="2"/>
+    <col min="110" max="114" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.140625" style="2"/>
+    <col min="116" max="116" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="122" width="9.140625" style="2"/>
+    <col min="123" max="123" width="15.28515625" style="2" customWidth="1"/>
+    <col min="124" max="124" width="23.7109375" style="2" customWidth="1"/>
+    <col min="125" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" s="7" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:134" s="7" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>42</v>
@@ -2546,8 +2572,8 @@
       <c r="L1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>80</v>
+      <c r="M1" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>80</v>
@@ -2556,7 +2582,7 @@
         <v>80</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="31" t="s">
         <v>131</v>
@@ -2574,7 +2600,7 @@
         <v>131</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="W1" s="31" t="s">
         <v>44</v>
@@ -2583,7 +2609,7 @@
         <v>44</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="31" t="s">
         <v>132</v>
@@ -2600,23 +2626,23 @@
       <c r="AD1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="AJ1" s="31" t="s">
-        <v>160</v>
       </c>
       <c r="AK1" s="31" t="s">
         <v>160</v>
@@ -2625,13 +2651,13 @@
         <v>160</v>
       </c>
       <c r="AM1" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN1" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AO1" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="AO1" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="AP1" s="31" t="s">
         <v>163</v>
@@ -2640,37 +2666,37 @@
         <v>163</v>
       </c>
       <c r="AR1" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS1" s="31" t="s">
         <v>159</v>
       </c>
       <c r="AT1" s="31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AU1" s="31" t="s">
         <v>165</v>
       </c>
       <c r="AV1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW1" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="AW1" s="31" t="s">
-        <v>167</v>
       </c>
       <c r="AX1" s="31" t="s">
         <v>167</v>
       </c>
       <c r="AY1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ1" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="AZ1" s="31" t="s">
-        <v>168</v>
       </c>
       <c r="BA1" s="31" t="s">
         <v>168</v>
       </c>
       <c r="BB1" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BC1" s="31" t="s">
         <v>169</v>
@@ -2682,10 +2708,10 @@
         <v>169</v>
       </c>
       <c r="BF1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG1" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="BG1" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="BH1" s="31" t="s">
         <v>170</v>
@@ -2703,13 +2729,13 @@
         <v>170</v>
       </c>
       <c r="BM1" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BN1" s="31" t="s">
         <v>171</v>
       </c>
       <c r="BO1" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BP1" s="31" t="s">
         <v>172</v>
@@ -2721,7 +2747,7 @@
         <v>172</v>
       </c>
       <c r="BS1" s="31" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="BT1" s="31" t="s">
         <v>158</v>
@@ -2733,27 +2759,29 @@
         <v>158</v>
       </c>
       <c r="BW1" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX1" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" s="32" t="s">
+      <c r="BY1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" s="31" t="s">
+      <c r="BZ1" s="31" t="s">
         <v>174</v>
-      </c>
-      <c r="BZ1" s="31" t="s">
-        <v>42</v>
       </c>
       <c r="CA1" s="31" t="s">
         <v>42</v>
       </c>
       <c r="CB1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC1" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="CC1" s="33" t="s">
+      <c r="CD1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="CJ1" s="16"/>
       <c r="CK1" s="16"/>
       <c r="CL1" s="16"/>
       <c r="CM1" s="16"/>
@@ -2771,418 +2799,420 @@
       <c r="CY1" s="16"/>
       <c r="CZ1" s="16"/>
       <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
     </row>
-    <row r="2" spans="1:133" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:134" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="38"/>
       <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="P2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="Q2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="R2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="T2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="U2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="V2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="W2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="X2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="Y2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Z2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="AA2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AB2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AC2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AD2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AE2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AF2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AG2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AH2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AI2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="38" t="s">
+      <c r="AK2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AL2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="38" t="s">
+      <c r="AM2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="38" t="s">
+      <c r="AN2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AN2" s="38" t="s">
+      <c r="AO2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AO2" s="38" t="s">
+      <c r="AP2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="38" t="s">
+      <c r="AQ2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AQ2" s="38" t="s">
+      <c r="AR2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="38" t="s">
+      <c r="AS2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="38" t="s">
+      <c r="AT2" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AT2" s="38" t="s">
+      <c r="AU2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="38" t="s">
+      <c r="AV2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="38" t="s">
+      <c r="AW2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AW2" s="38" t="s">
+      <c r="AX2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="38" t="s">
+      <c r="AY2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="38" t="s">
+      <c r="AZ2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="AZ2" s="38" t="s">
+      <c r="BA2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="38" t="s">
+      <c r="BB2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="38" t="s">
+      <c r="BC2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="38" t="s">
+      <c r="BD2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="38" t="s">
+      <c r="BE2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="38" t="s">
+      <c r="BF2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="38" t="s">
+      <c r="BG2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="BG2" s="38" t="s">
+      <c r="BH2" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="BH2" s="38" t="s">
+      <c r="BI2" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BI2" s="38" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="BJ2" s="38" t="s">
+      <c r="BK2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BK2" s="38" t="s">
+      <c r="BL2" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="BL2" s="38" t="s">
+      <c r="BM2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="38" t="s">
+      <c r="BN2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="BN2" s="38" t="s">
+      <c r="BO2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="BO2" s="38" t="s">
+      <c r="BP2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="BP2" s="38" t="s">
+      <c r="BQ2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="BQ2" s="38" t="s">
+      <c r="BR2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="BR2" s="38" t="s">
+      <c r="BS2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" s="39" t="s">
+      <c r="BT2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" s="39" t="s">
+      <c r="BU2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" s="39" t="s">
+      <c r="BV2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="39" t="s">
+      <c r="BW2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="BW2" s="39" t="s">
+      <c r="BX2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="39" t="s">
+      <c r="BY2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="BY2" s="39" t="s">
+      <c r="BZ2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="BZ2" s="38" t="s">
+      <c r="CA2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="CA2" s="38" t="s">
+      <c r="CB2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="CB2" s="38" t="s">
+      <c r="CC2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="CC2" s="40" t="s">
+      <c r="CD2" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:133" s="18" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:134" s="18" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="35">
+      <c r="M3" s="35">
         <v>20000</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="N3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="R3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="S3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="T3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="U3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="35"/>
+      <c r="W3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="35">
+      <c r="Y3" s="35">
         <v>1234567890</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="AA3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AB3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="35" t="s">
+      <c r="AC3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AD3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AG3" s="35">
         <v>150067600</v>
       </c>
-      <c r="AG3" s="35" t="s">
+      <c r="AH3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AI3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AJ3" s="35">
         <v>602091147</v>
       </c>
-      <c r="AJ3" s="35" t="s">
+      <c r="AK3" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AL3" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="AL3" s="35">
+      <c r="AM3" s="35">
         <v>5166829292</v>
       </c>
-      <c r="AM3" s="35" t="s">
+      <c r="AN3" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="35" t="s">
+      <c r="AO3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="AO3" s="35" t="s">
+      <c r="AP3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="35" t="s">
+      <c r="AQ3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="AQ3" s="35" t="s">
+      <c r="AR3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="35" t="s">
+      <c r="AS3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="35" t="s">
+      <c r="AT3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AT3" s="35" t="s">
+      <c r="AU3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="35">
+      <c r="AV3" s="35">
         <v>200</v>
       </c>
-      <c r="AV3" s="35" t="s">
+      <c r="AW3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="AW3" s="35" t="s">
+      <c r="AX3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AX3" s="35">
+      <c r="AY3" s="35">
         <v>50</v>
       </c>
-      <c r="AY3" s="35">
+      <c r="AZ3" s="35">
         <v>1</v>
       </c>
-      <c r="AZ3" s="35" t="s">
+      <c r="BA3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="BA3" s="35">
+      <c r="BB3" s="35">
         <v>50</v>
       </c>
-      <c r="BB3" s="35">
+      <c r="BC3" s="35">
         <v>180</v>
       </c>
-      <c r="BC3" s="35">
+      <c r="BD3" s="35">
         <v>93</v>
       </c>
-      <c r="BD3" s="35">
+      <c r="BE3" s="35">
         <v>106</v>
       </c>
-      <c r="BE3" s="35" t="s">
+      <c r="BF3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BF3" s="35" t="s">
+      <c r="BG3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" s="35" t="s">
+      <c r="BH3" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="BH3" s="35">
-        <v>1</v>
       </c>
       <c r="BI3" s="35">
         <v>1</v>
@@ -3190,64 +3220,66 @@
       <c r="BJ3" s="35">
         <v>1</v>
       </c>
-      <c r="BK3" s="35" t="s">
+      <c r="BK3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BM3" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BM3" s="35" t="s">
+      <c r="BN3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="BN3" s="35">
+      <c r="BO3" s="35">
         <v>50</v>
       </c>
-      <c r="BO3" s="35">
+      <c r="BP3" s="35">
         <v>180</v>
       </c>
-      <c r="BP3" s="35">
+      <c r="BQ3" s="35">
         <v>93</v>
       </c>
-      <c r="BQ3" s="35">
+      <c r="BR3" s="35">
         <v>106</v>
       </c>
-      <c r="BR3" s="35" t="s">
+      <c r="BS3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BS3" s="35" t="s">
+      <c r="BT3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="BT3" s="35" t="s">
+      <c r="BU3" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="BU3" s="35" t="s">
+      <c r="BV3" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="BV3" s="35" t="s">
+      <c r="BW3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="35" t="s">
+      <c r="BX3" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="35" t="s">
+      <c r="BY3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="BY3" s="35" t="b">
+      <c r="BZ3" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="BZ3" s="35" t="s">
+      <c r="CA3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="CA3" s="35">
+      <c r="CB3" s="35">
         <v>1</v>
       </c>
-      <c r="CB3" s="35" t="s">
+      <c r="CC3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="CC3" s="36" t="s">
+      <c r="CD3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="CJ3" s="19"/>
       <c r="CK3" s="19"/>
       <c r="CL3" s="19"/>
       <c r="CM3" s="19"/>
@@ -3265,15 +3297,15 @@
       <c r="CY3" s="19"/>
       <c r="CZ3" s="19"/>
       <c r="DA3" s="19"/>
-      <c r="DB3" s="20"/>
-      <c r="DC3" s="21"/>
+      <c r="DB3" s="19"/>
+      <c r="DC3" s="20"/>
       <c r="DD3" s="21"/>
       <c r="DE3" s="21"/>
       <c r="DF3" s="21"/>
       <c r="DG3" s="21"/>
       <c r="DH3" s="21"/>
       <c r="DI3" s="21"/>
-      <c r="DJ3" s="20"/>
+      <c r="DJ3" s="21"/>
       <c r="DK3" s="20"/>
       <c r="DL3" s="20"/>
       <c r="DM3" s="20"/>
@@ -3293,10 +3325,11 @@
       <c r="EA3" s="20"/>
       <c r="EB3" s="20"/>
       <c r="EC3" s="20"/>
+      <c r="ED3" s="20"/>
     </row>
-    <row r="4" spans="1:133" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:134" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3401,24 +3434,23 @@
       <c r="CZ4" s="9"/>
       <c r="DA4" s="9"/>
       <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
     </row>
-    <row r="5" spans="1:133" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:134" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>42</v>
@@ -3430,22 +3462,22 @@
         <v>42</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="M5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="42" t="s">
         <v>80</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>80</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>131</v>
@@ -3462,22 +3494,22 @@
       <c r="U5" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="V5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="13" t="s">
+      <c r="V5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" s="42" t="s">
         <v>44</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Z5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>132</v>
       </c>
       <c r="AB5" s="13" t="s">
@@ -3489,23 +3521,23 @@
       <c r="AD5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AJ5" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="AJ5" s="42" t="s">
-        <v>160</v>
       </c>
       <c r="AK5" s="42" t="s">
         <v>160</v>
@@ -3514,55 +3546,55 @@
         <v>160</v>
       </c>
       <c r="AM5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN5" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AO5" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AP5" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AP5" s="42" t="s">
+      <c r="AQ5" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AQ5" s="42" t="s">
+      <c r="AR5" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AR5" s="42" t="s">
+      <c r="AS5" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AS5" s="42" t="s">
+      <c r="AT5" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="AT5" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="AU5" s="42" t="s">
         <v>165</v>
       </c>
       <c r="AV5" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW5" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="AW5" s="42" t="s">
-        <v>167</v>
       </c>
       <c r="AX5" s="42" t="s">
         <v>167</v>
       </c>
       <c r="AY5" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ5" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="AZ5" s="42" t="s">
+      <c r="BA5" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="BA5" s="42" t="s">
-        <v>168</v>
       </c>
       <c r="BB5" s="42" t="s">
         <v>168</v>
       </c>
       <c r="BC5" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BD5" s="42" t="s">
         <v>169</v>
@@ -3574,10 +3606,10 @@
         <v>169</v>
       </c>
       <c r="BG5" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH5" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="BH5" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="BI5" s="42" t="s">
         <v>170</v>
@@ -3595,13 +3627,13 @@
         <v>170</v>
       </c>
       <c r="BN5" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BO5" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BP5" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BQ5" s="42" t="s">
         <v>172</v>
@@ -3612,68 +3644,68 @@
       <c r="BS5" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="BT5" s="43" t="s">
-        <v>142</v>
+      <c r="BT5" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="BU5" s="43" t="s">
         <v>142</v>
       </c>
       <c r="BV5" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW5" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="BW5" s="43" t="s">
+      <c r="BX5" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="BX5" s="43" t="s">
+      <c r="BY5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="BY5" s="43" t="s">
+      <c r="BZ5" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="BZ5" s="43" t="s">
+      <c r="CA5" s="43" t="s">
         <v>147</v>
-      </c>
-      <c r="CA5" s="43" t="s">
-        <v>148</v>
       </c>
       <c r="CB5" s="43" t="s">
         <v>148</v>
       </c>
       <c r="CC5" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CD5" s="43" t="s">
         <v>149</v>
       </c>
       <c r="CE5" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="CF5" s="43" t="s">
         <v>150</v>
-      </c>
-      <c r="CF5" s="43" t="s">
-        <v>151</v>
       </c>
       <c r="CG5" s="43" t="s">
         <v>151</v>
       </c>
       <c r="CH5" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CI5" s="43" t="s">
         <v>152</v>
       </c>
       <c r="CJ5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="CK5" s="43" t="s">
         <v>150</v>
-      </c>
-      <c r="CK5" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="CL5" s="43" t="s">
         <v>153</v>
       </c>
       <c r="CM5" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="CN5" s="43" t="s">
         <v>150</v>
-      </c>
-      <c r="CN5" s="43" t="s">
-        <v>154</v>
       </c>
       <c r="CO5" s="43" t="s">
         <v>154</v>
@@ -3682,31 +3714,31 @@
         <v>154</v>
       </c>
       <c r="CQ5" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CR5" s="43" t="s">
         <v>155</v>
       </c>
       <c r="CS5" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CT5" s="43" t="s">
         <v>154</v>
       </c>
       <c r="CU5" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CV5" s="43" t="s">
         <v>156</v>
       </c>
       <c r="CW5" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CX5" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="CY5" s="42" t="s">
-        <v>158</v>
+      <c r="CY5" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="CZ5" s="42" t="s">
         <v>158</v>
@@ -3715,10 +3747,10 @@
         <v>158</v>
       </c>
       <c r="DB5" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="DC5" s="42" t="s">
         <v>173</v>
-      </c>
-      <c r="DC5" s="42" t="s">
-        <v>174</v>
       </c>
       <c r="DD5" s="42" t="s">
         <v>174</v>
@@ -3727,18 +3759,20 @@
         <v>174</v>
       </c>
       <c r="DF5" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG5" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="DG5" s="42" t="s">
+      <c r="DH5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="DH5" s="44" t="s">
+      <c r="DI5" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="DI5" s="45" t="s">
+      <c r="DJ5" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="DN5" s="22"/>
       <c r="DO5" s="22"/>
       <c r="DP5" s="22"/>
       <c r="DQ5" s="22"/>
@@ -3754,671 +3788,675 @@
       <c r="EA5" s="22"/>
       <c r="EB5" s="22"/>
       <c r="EC5" s="22"/>
+      <c r="ED5" s="22"/>
     </row>
-    <row r="6" spans="1:133" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:134" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="V6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="W6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="X6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Z6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="AA6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AB6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AC6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AD6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AE6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AF6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AG6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AH6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AI6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AJ6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AK6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AL6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AM6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AN6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AO6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AO6" s="15" t="s">
+      <c r="AP6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AQ6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AQ6" s="15" t="s">
+      <c r="AR6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AR6" s="15" t="s">
+      <c r="AS6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AS6" s="15" t="s">
+      <c r="AT6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AT6" s="15" t="s">
+      <c r="AU6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AU6" s="15" t="s">
+      <c r="AV6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AV6" s="15" t="s">
+      <c r="AW6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AW6" s="15" t="s">
+      <c r="AX6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AX6" s="15" t="s">
+      <c r="AY6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AY6" s="15" t="s">
+      <c r="AZ6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AZ6" s="15" t="s">
+      <c r="BA6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BA6" s="15" t="s">
+      <c r="BB6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BB6" s="15" t="s">
+      <c r="BC6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BC6" s="15" t="s">
+      <c r="BD6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BD6" s="15" t="s">
+      <c r="BE6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BE6" s="15" t="s">
+      <c r="BF6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BF6" s="15" t="s">
+      <c r="BG6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BG6" s="15" t="s">
+      <c r="BH6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BH6" s="15" t="s">
+      <c r="BI6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BI6" s="15" t="s">
+      <c r="BJ6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="BJ6" s="15" t="s">
+      <c r="BK6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="BK6" s="15" t="s">
+      <c r="BL6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="BL6" s="15" t="s">
+      <c r="BM6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BM6" s="15" t="s">
+      <c r="BN6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BN6" s="15" t="s">
+      <c r="BO6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BO6" s="15" t="s">
+      <c r="BP6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BP6" s="15" t="s">
+      <c r="BQ6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BQ6" s="15" t="s">
+      <c r="BR6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BR6" s="15" t="s">
+      <c r="BS6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BS6" s="15" t="s">
+      <c r="BT6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BT6" s="52" t="s">
+      <c r="BU6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="BU6" s="52" t="s">
+      <c r="BV6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="BV6" s="52" t="s">
+      <c r="BW6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="BW6" s="52" t="s">
+      <c r="BX6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="BX6" s="52" t="s">
+      <c r="BY6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="BY6" s="52" t="s">
+      <c r="BZ6" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="BZ6" s="52" t="s">
+      <c r="CA6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CA6" s="52" t="s">
+      <c r="CB6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CB6" s="52" t="s">
+      <c r="CC6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CC6" s="52" t="s">
+      <c r="CD6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CD6" s="52" t="s">
+      <c r="CE6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CE6" s="52" t="s">
+      <c r="CF6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="CF6" s="52" t="s">
+      <c r="CG6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CG6" s="52" t="s">
+      <c r="CH6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CH6" s="52" t="s">
+      <c r="CI6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CI6" s="52" t="s">
+      <c r="CJ6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CJ6" s="52" t="s">
+      <c r="CK6" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="CK6" s="52" t="s">
+      <c r="CL6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="CL6" s="52" t="s">
+      <c r="CM6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="CM6" s="52" t="s">
+      <c r="CN6" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="CN6" s="52" t="s">
+      <c r="CO6" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="CO6" s="52" t="s">
+      <c r="CP6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="CP6" s="52" t="s">
+      <c r="CQ6" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="CQ6" s="52" t="s">
+      <c r="CR6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="CR6" s="52" t="s">
+      <c r="CS6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="CS6" s="52" t="s">
+      <c r="CT6" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="CT6" s="52" t="s">
+      <c r="CU6" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="CU6" s="52" t="s">
+      <c r="CV6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CV6" s="52" t="s">
+      <c r="CW6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CW6" s="52" t="s">
+      <c r="CX6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="CX6" s="52" t="s">
+      <c r="CY6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="CY6" s="53" t="s">
+      <c r="CZ6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="CZ6" s="53" t="s">
+      <c r="DA6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DA6" s="53" t="s">
+      <c r="DB6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="DB6" s="53" t="s">
+      <c r="DC6" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="DC6" s="53" t="s">
+      <c r="DD6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DD6" s="53" t="s">
+      <c r="DE6" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="DE6" s="53" t="s">
+      <c r="DF6" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="DF6" s="15" t="s">
+      <c r="DG6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="DG6" s="15" t="s">
+      <c r="DH6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="DH6" s="38" t="s">
+      <c r="DI6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="DI6" s="40" t="s">
+      <c r="DJ6" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:133" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:134" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="G7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="J7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="K7" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="L7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="48">
+      <c r="M7" s="48">
         <v>20000</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="N7" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="O7" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="48">
+      <c r="P7" s="48">
         <v>5166829292</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="Q7" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="R7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="S7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="T7" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="U7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48" t="s">
+      <c r="V7" s="48"/>
+      <c r="W7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="48" t="s">
+      <c r="X7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="48">
+      <c r="Y7" s="48">
         <v>9012367890</v>
       </c>
-      <c r="Y7" s="48" t="s">
+      <c r="Z7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="48" t="s">
+      <c r="AA7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="48" t="s">
+      <c r="AB7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="48">
+      <c r="AC7" s="48">
         <v>917</v>
       </c>
-      <c r="AC7" s="48" t="s">
+      <c r="AD7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="48" t="s">
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="48" t="s">
+      <c r="AG7" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="AG7" s="48" t="s">
+      <c r="AH7" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="AH7" s="48" t="s">
+      <c r="AI7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="48">
+      <c r="AJ7" s="48">
         <v>602091147</v>
       </c>
-      <c r="AJ7" s="48" t="s">
+      <c r="AK7" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="AK7" s="48" t="s">
+      <c r="AL7" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="AL7" s="48">
+      <c r="AM7" s="48">
         <v>5166829292</v>
       </c>
-      <c r="AM7" s="48" t="s">
+      <c r="AN7" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="AN7" s="48" t="s">
+      <c r="AO7" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="AO7" s="48" t="s">
+      <c r="AP7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AP7" s="48" t="s">
+      <c r="AQ7" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="AQ7" s="48" t="s">
+      <c r="AR7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AR7" s="48" t="s">
+      <c r="AS7" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AS7" s="48" t="s">
+      <c r="AT7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="AT7" s="48" t="s">
+      <c r="AU7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AU7" s="48">
+      <c r="AV7" s="48">
         <v>200</v>
       </c>
-      <c r="AV7" s="48" t="s">
+      <c r="AW7" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="AW7" s="48" t="s">
+      <c r="AX7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AX7" s="48">
+      <c r="AY7" s="48">
         <v>50</v>
       </c>
-      <c r="AY7" s="48">
+      <c r="AZ7" s="48">
         <v>1</v>
       </c>
-      <c r="AZ7" s="48">
+      <c r="BA7" s="48">
         <v>0</v>
       </c>
-      <c r="BA7" s="48" t="s">
+      <c r="BB7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="BB7" s="48">
+      <c r="BC7" s="48">
         <v>50</v>
       </c>
-      <c r="BC7" s="48">
+      <c r="BD7" s="48">
         <v>180</v>
       </c>
-      <c r="BD7" s="48">
+      <c r="BE7" s="48">
         <v>93</v>
       </c>
-      <c r="BE7" s="48">
+      <c r="BF7" s="48">
         <v>106</v>
       </c>
-      <c r="BF7" s="48" t="s">
+      <c r="BG7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="BG7" s="48" t="s">
+      <c r="BH7" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="BH7" s="48" t="s">
+      <c r="BI7" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="BI7" s="48">
+      <c r="BJ7" s="48">
         <v>1</v>
       </c>
-      <c r="BJ7" s="48" t="s">
+      <c r="BK7" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="BK7" s="48">
+      <c r="BL7" s="48">
         <v>1</v>
       </c>
-      <c r="BL7" s="48" t="s">
+      <c r="BM7" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="BM7" s="48" t="s">
+      <c r="BN7" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="BN7" s="48" t="s">
+      <c r="BO7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="BO7" s="48">
+      <c r="BP7" s="48">
         <v>2000</v>
       </c>
-      <c r="BP7" s="48">
+      <c r="BQ7" s="48">
         <v>180</v>
       </c>
-      <c r="BQ7" s="48">
+      <c r="BR7" s="48">
         <v>93</v>
       </c>
-      <c r="BR7" s="48">
+      <c r="BS7" s="48">
         <v>106</v>
       </c>
-      <c r="BS7" s="48" t="s">
+      <c r="BT7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="BT7" s="48"/>
       <c r="BU7" s="48"/>
-      <c r="BV7" s="48" t="s">
+      <c r="BV7" s="48"/>
+      <c r="BW7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="BW7" s="48" t="s">
+      <c r="BX7" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="BX7" s="48">
+      <c r="BY7" s="48">
         <v>12345</v>
       </c>
-      <c r="BY7" s="48" t="s">
+      <c r="BZ7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BZ7" s="48" t="s">
+      <c r="CA7" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="CA7" s="48" t="s">
+      <c r="CB7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CB7" s="48">
+      <c r="CC7" s="48">
         <v>2500</v>
       </c>
-      <c r="CC7" s="48" t="s">
+      <c r="CD7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CD7" s="48">
+      <c r="CE7" s="48">
         <v>100</v>
       </c>
-      <c r="CE7" s="48" t="s">
+      <c r="CF7" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="CF7" s="48" t="s">
+      <c r="CG7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CG7" s="48">
+      <c r="CH7" s="48">
         <v>100</v>
       </c>
-      <c r="CH7" s="48" t="s">
+      <c r="CI7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CI7" s="48">
+      <c r="CJ7" s="48">
         <v>25</v>
       </c>
-      <c r="CJ7" s="48" t="s">
+      <c r="CK7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="CK7" s="48" t="s">
+      <c r="CL7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="CL7" s="48">
+      <c r="CM7" s="48">
         <v>123456789</v>
       </c>
-      <c r="CM7" s="48" t="s">
+      <c r="CN7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CN7" s="48">
+      <c r="CO7" s="48">
         <v>1</v>
       </c>
-      <c r="CO7" s="48" t="s">
+      <c r="CP7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="CP7" s="48" t="s">
+      <c r="CQ7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="CQ7" s="48" t="s">
+      <c r="CR7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="CR7" s="48">
+      <c r="CS7" s="48">
         <v>2000</v>
       </c>
-      <c r="CS7" s="48">
+      <c r="CT7" s="48">
         <v>1</v>
       </c>
-      <c r="CT7" s="48" t="s">
+      <c r="CU7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="CU7" s="48" t="s">
+      <c r="CV7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CV7" s="48">
+      <c r="CW7" s="48">
         <v>2500</v>
       </c>
-      <c r="CW7" s="48" t="s">
+      <c r="CX7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="CX7" s="48">
+      <c r="CY7" s="48">
         <v>2500</v>
       </c>
-      <c r="CY7" s="49" t="s">
+      <c r="CZ7" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="CZ7" s="49" t="s">
+      <c r="DA7" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="DA7" s="49" t="s">
+      <c r="DB7" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="DB7" s="49" t="s">
+      <c r="DC7" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="DC7" s="49" t="s">
+      <c r="DD7" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="DD7" s="49" t="s">
+      <c r="DE7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="DE7" s="49" t="b">
+      <c r="DF7" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="DF7" s="48" t="s">
+      <c r="DG7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="DG7" s="48">
+      <c r="DH7" s="48">
         <v>1</v>
       </c>
-      <c r="DH7" s="48" t="s">
+      <c r="DI7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="DI7" s="50" t="s">
+      <c r="DJ7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="DN7" s="19"/>
       <c r="DO7" s="19"/>
       <c r="DP7" s="19"/>
       <c r="DQ7" s="19"/>
@@ -4434,334 +4472,337 @@
       <c r="EA7" s="19"/>
       <c r="EB7" s="19"/>
       <c r="EC7" s="19"/>
+      <c r="ED7" s="19"/>
     </row>
-    <row r="8" spans="1:133" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:134" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="27">
+      <c r="M8" s="27">
         <v>20000</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="N8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="O8" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="27">
+      <c r="P8" s="27">
         <v>5166829292</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="Q8" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="R8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="S8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="T8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="U8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27" t="s">
+      <c r="V8" s="27"/>
+      <c r="W8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="27" t="s">
+      <c r="X8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="27">
+      <c r="Y8" s="27">
         <v>9012367890</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="Z8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="27" t="s">
+      <c r="AA8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="27" t="s">
+      <c r="AB8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AC8" s="27">
         <v>917</v>
       </c>
-      <c r="AC8" s="27" t="s">
+      <c r="AD8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="27" t="s">
+      <c r="AG8" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AG8" s="27" t="s">
+      <c r="AH8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AH8" s="27" t="s">
+      <c r="AI8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AJ8" s="27">
         <v>602091147</v>
       </c>
-      <c r="AJ8" s="27" t="s">
+      <c r="AK8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AK8" s="27" t="s">
+      <c r="AL8" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="AM8" s="27">
         <v>5166829292</v>
       </c>
-      <c r="AM8" s="27" t="s">
+      <c r="AN8" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="AN8" s="27" t="s">
+      <c r="AO8" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AO8" s="27" t="s">
+      <c r="AP8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AP8" s="27" t="s">
+      <c r="AQ8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="AQ8" s="27" t="s">
+      <c r="AR8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AR8" s="27" t="s">
+      <c r="AS8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AS8" s="27" t="s">
+      <c r="AT8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AT8" s="27" t="s">
+      <c r="AU8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AU8" s="27">
+      <c r="AV8" s="27">
         <v>200</v>
       </c>
-      <c r="AV8" s="27" t="s">
+      <c r="AW8" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AW8" s="27" t="s">
+      <c r="AX8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AX8" s="27">
+      <c r="AY8" s="27">
         <v>50</v>
       </c>
-      <c r="AY8" s="27">
+      <c r="AZ8" s="27">
         <v>1</v>
       </c>
-      <c r="AZ8" s="27">
+      <c r="BA8" s="27">
         <v>0</v>
       </c>
-      <c r="BA8" s="27" t="s">
+      <c r="BB8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BB8" s="27">
+      <c r="BC8" s="27">
         <v>50</v>
       </c>
-      <c r="BC8" s="27">
+      <c r="BD8" s="27">
         <v>180</v>
       </c>
-      <c r="BD8" s="27">
+      <c r="BE8" s="27">
         <v>93</v>
       </c>
-      <c r="BE8" s="27">
+      <c r="BF8" s="27">
         <v>106</v>
       </c>
-      <c r="BF8" s="27" t="s">
+      <c r="BG8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BG8" s="27" t="s">
+      <c r="BH8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="BH8" s="27" t="s">
+      <c r="BI8" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="BI8" s="27">
+      <c r="BJ8" s="27">
         <v>1</v>
       </c>
-      <c r="BJ8" s="27" t="s">
+      <c r="BK8" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="BK8" s="27">
+      <c r="BL8" s="27">
         <v>1</v>
       </c>
-      <c r="BL8" s="27" t="s">
+      <c r="BM8" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="BM8" s="27" t="s">
+      <c r="BN8" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="BN8" s="27" t="s">
+      <c r="BO8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BO8" s="27">
+      <c r="BP8" s="27">
         <v>2000</v>
       </c>
-      <c r="BP8" s="27">
+      <c r="BQ8" s="27">
         <v>180</v>
       </c>
-      <c r="BQ8" s="27">
+      <c r="BR8" s="27">
         <v>93</v>
       </c>
-      <c r="BR8" s="27">
+      <c r="BS8" s="27">
         <v>106</v>
       </c>
-      <c r="BS8" s="27" t="s">
+      <c r="BT8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BT8" s="27"/>
       <c r="BU8" s="27"/>
-      <c r="BV8" s="27" t="s">
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="BW8" s="27" t="s">
+      <c r="BX8" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BX8" s="27">
+      <c r="BY8" s="27">
         <v>12345</v>
       </c>
-      <c r="BY8" s="27" t="s">
+      <c r="BZ8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BZ8" s="27" t="s">
+      <c r="CA8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="CA8" s="27" t="s">
+      <c r="CB8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CB8" s="27">
+      <c r="CC8" s="27">
         <v>2500</v>
       </c>
-      <c r="CC8" s="27" t="s">
+      <c r="CD8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CD8" s="27">
+      <c r="CE8" s="27">
         <v>100</v>
       </c>
-      <c r="CE8" s="27" t="s">
+      <c r="CF8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="CF8" s="27" t="s">
+      <c r="CG8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="27">
+      <c r="CH8" s="27">
         <v>100</v>
       </c>
-      <c r="CH8" s="27" t="s">
+      <c r="CI8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CI8" s="27">
+      <c r="CJ8" s="27">
         <v>25</v>
       </c>
-      <c r="CJ8" s="27" t="s">
+      <c r="CK8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="CK8" s="27" t="s">
+      <c r="CL8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="CL8" s="27">
+      <c r="CM8" s="27">
         <v>123456789</v>
       </c>
-      <c r="CM8" s="27" t="s">
+      <c r="CN8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="CN8" s="27">
+      <c r="CO8" s="27">
         <v>1</v>
       </c>
-      <c r="CO8" s="27" t="s">
+      <c r="CP8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CP8" s="27" t="s">
+      <c r="CQ8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CQ8" s="27" t="s">
+      <c r="CR8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="CR8" s="27">
+      <c r="CS8" s="27">
         <v>2000</v>
       </c>
-      <c r="CS8" s="27">
+      <c r="CT8" s="27">
         <v>1</v>
       </c>
-      <c r="CT8" s="27" t="s">
+      <c r="CU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CU8" s="27" t="s">
+      <c r="CV8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CV8" s="27">
+      <c r="CW8" s="27">
         <v>2500</v>
       </c>
-      <c r="CW8" s="27" t="s">
+      <c r="CX8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CX8" s="27">
+      <c r="CY8" s="27">
         <v>2500</v>
       </c>
-      <c r="CY8" s="54" t="s">
+      <c r="CZ8" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="CZ8" s="54" t="s">
+      <c r="DA8" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="DA8" s="54" t="s">
+      <c r="DB8" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="DB8" s="54" t="s">
+      <c r="DC8" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="DC8" s="54" t="s">
+      <c r="DD8" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="DD8" s="54" t="s">
+      <c r="DE8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="DE8" s="54" t="b">
+      <c r="DF8" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="DF8" s="27" t="s">
+      <c r="DG8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="DG8" s="27">
+      <c r="DH8" s="27">
         <v>1</v>
       </c>
-      <c r="DH8" s="27" t="s">
+      <c r="DI8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="DI8" s="28" t="s">
+      <c r="DJ8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DN8" s="19"/>
       <c r="DO8" s="19"/>
       <c r="DP8" s="19"/>
       <c r="DQ8" s="19"/>
@@ -4777,10 +4818,11 @@
       <c r="EA8" s="19"/>
       <c r="EB8" s="19"/>
       <c r="EC8" s="19"/>
+      <c r="ED8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
